--- a/pred_ohlcv/54_21/2019-10-26 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>89700.70239999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>56834.08709999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>55247.42849999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>64361.42849999999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>74406.26039999998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>84546.27149999997</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>132305.5318</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>119278.5352</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>116968.5352</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>93681.53519999997</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>103924.931</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>110216.0588</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>101073.2888</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>99016.28879999997</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>108451.5367</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>107850.5367</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>97266.07839999997</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>96516.07839999997</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>95524.34809999997</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>97024.34809999997</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>96967.95679999997</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>90623.18139999997</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>129060.2315</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>108798.2315</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>97886.76549999998</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>129928.2075</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>129606.2075</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ELF ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>89700.70239999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>95954.36839999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>66153.61529999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>56834.08709999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>64361.42849999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>74406.26039999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>74915.17759999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>84546.27149999997</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>132305.5318</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>119218.5352</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>119278.5352</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>116968.5352</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>93681.53519999997</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>103924.931</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>85974.93099999997</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>110216.0588</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>101073.2888</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>99016.28879999997</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>108451.5367</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>107850.5367</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>97266.07839999997</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>96516.07839999997</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>95524.34809999997</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>97024.34809999997</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>96967.95679999997</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>93306.03939999997</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>90623.18139999997</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>129050.2315</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>129060.2315</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>127859.2315</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>119509.2315</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>108798.2315</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>97886.76549999998</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>109374.2752</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>131600.7121737864</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
